--- a/Excel-XLSX/UN-DJB.xlsx
+++ b/Excel-XLSX/UN-DJB.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>xW8QjH</t>
+    <t>Ri1xaN</t>
   </si>
   <si>
     <t>1995</t>
@@ -468,10 +468,10 @@
     <t>43</t>
   </si>
   <si>
-    <t>620</t>
-  </si>
-  <si>
-    <t>779</t>
+    <t>707</t>
+  </si>
+  <si>
+    <t>770</t>
   </si>
   <si>
     <t>44</t>
@@ -891,10 +891,10 @@
     <t>90</t>
   </si>
   <si>
-    <t>4419</t>
-  </si>
-  <si>
-    <t>8045</t>
+    <t>5435</t>
+  </si>
+  <si>
+    <t>7575</t>
   </si>
   <si>
     <t>91</t>
@@ -1314,7 +1314,7 @@
     <t>170</t>
   </si>
   <si>
-    <t>13251</t>
+    <t>13452</t>
   </si>
   <si>
     <t>171</t>
@@ -1524,7 +1524,7 @@
     <t>226</t>
   </si>
   <si>
-    <t>3278</t>
+    <t>3420</t>
   </si>
 </sst>
 </file>
@@ -2049,8 +2049,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>34</v>
+      <c r="V2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -2117,8 +2117,8 @@
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>34</v>
+      <c r="V3" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -2185,8 +2185,8 @@
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>34</v>
+      <c r="V4" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -2253,8 +2253,8 @@
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>34</v>
+      <c r="V5" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -2321,8 +2321,8 @@
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>34</v>
+      <c r="V6" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -2389,8 +2389,8 @@
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>34</v>
+      <c r="V7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -2457,8 +2457,8 @@
       <c r="U8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>34</v>
+      <c r="V8" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -2525,8 +2525,8 @@
       <c r="U9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>34</v>
+      <c r="V9" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -2593,8 +2593,8 @@
       <c r="U10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>34</v>
+      <c r="V10" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -2661,8 +2661,8 @@
       <c r="U11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>34</v>
+      <c r="V11" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -2729,8 +2729,8 @@
       <c r="U12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>34</v>
+      <c r="V12" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -2797,8 +2797,8 @@
       <c r="U13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>34</v>
+      <c r="V13" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -2865,8 +2865,8 @@
       <c r="U14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>34</v>
+      <c r="V14" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -2933,8 +2933,8 @@
       <c r="U15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>34</v>
+      <c r="V15" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -3341,8 +3341,8 @@
       <c r="U21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>34</v>
+      <c r="V21" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -3409,8 +3409,8 @@
       <c r="U22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>34</v>
+      <c r="V22" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -3477,8 +3477,8 @@
       <c r="U23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>34</v>
+      <c r="V23" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -3545,8 +3545,8 @@
       <c r="U24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>34</v>
+      <c r="V24" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -3613,8 +3613,8 @@
       <c r="U25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>34</v>
+      <c r="V25" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -3681,8 +3681,8 @@
       <c r="U26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>34</v>
+      <c r="V26" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -3749,8 +3749,8 @@
       <c r="U27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>34</v>
+      <c r="V27" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -3817,8 +3817,8 @@
       <c r="U28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>34</v>
+      <c r="V28" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -3885,8 +3885,8 @@
       <c r="U29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>34</v>
+      <c r="V29" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -3953,8 +3953,8 @@
       <c r="U30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>34</v>
+      <c r="V30" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -4021,8 +4021,8 @@
       <c r="U31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>34</v>
+      <c r="V31" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32">
@@ -4089,8 +4089,8 @@
       <c r="U32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>34</v>
+      <c r="V32" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33">
@@ -4157,8 +4157,8 @@
       <c r="U33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>34</v>
+      <c r="V33" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -4225,8 +4225,8 @@
       <c r="U34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>34</v>
+      <c r="V34" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -4293,8 +4293,8 @@
       <c r="U35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>34</v>
+      <c r="V35" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36">
@@ -4361,8 +4361,8 @@
       <c r="U36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>34</v>
+      <c r="V36" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -4429,8 +4429,8 @@
       <c r="U37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>34</v>
+      <c r="V37" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38">
@@ -4497,8 +4497,8 @@
       <c r="U38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>34</v>
+      <c r="V38" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39">
@@ -4565,8 +4565,8 @@
       <c r="U39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>34</v>
+      <c r="V39" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40">
@@ -4633,8 +4633,8 @@
       <c r="U40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>34</v>
+      <c r="V40" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41">
@@ -4701,8 +4701,8 @@
       <c r="U41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>34</v>
+      <c r="V41" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -4769,8 +4769,8 @@
       <c r="U42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>34</v>
+      <c r="V42" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43">
@@ -4973,8 +4973,8 @@
       <c r="U45" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>34</v>
+      <c r="V45" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46">
@@ -5041,8 +5041,8 @@
       <c r="U46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>34</v>
+      <c r="V46" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47">
@@ -5109,8 +5109,8 @@
       <c r="U47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>34</v>
+      <c r="V47" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48">
@@ -5177,8 +5177,8 @@
       <c r="U48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>34</v>
+      <c r="V48" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49">
@@ -5245,8 +5245,8 @@
       <c r="U49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>34</v>
+      <c r="V49" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50">
@@ -5313,8 +5313,8 @@
       <c r="U50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>34</v>
+      <c r="V50" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51">
@@ -5381,8 +5381,8 @@
       <c r="U51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>34</v>
+      <c r="V51" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52">
@@ -5449,8 +5449,8 @@
       <c r="U52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>34</v>
+      <c r="V52" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="53">
@@ -5517,8 +5517,8 @@
       <c r="U53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>34</v>
+      <c r="V53" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="54">
@@ -5585,8 +5585,8 @@
       <c r="U54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>34</v>
+      <c r="V54" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55">
@@ -5653,8 +5653,8 @@
       <c r="U55" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>34</v>
+      <c r="V55" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="56">
@@ -5721,8 +5721,8 @@
       <c r="U56" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>34</v>
+      <c r="V56" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="57">
@@ -5789,8 +5789,8 @@
       <c r="U57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>34</v>
+      <c r="V57" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58">
@@ -5857,8 +5857,8 @@
       <c r="U58" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>34</v>
+      <c r="V58" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="59">
@@ -5925,8 +5925,8 @@
       <c r="U59" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>34</v>
+      <c r="V59" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="60">
@@ -5993,8 +5993,8 @@
       <c r="U60" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>34</v>
+      <c r="V60" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61">
@@ -6061,8 +6061,8 @@
       <c r="U61" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>34</v>
+      <c r="V61" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="62">
@@ -6129,8 +6129,8 @@
       <c r="U62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>34</v>
+      <c r="V62" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="63">
@@ -6197,8 +6197,8 @@
       <c r="U63" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>34</v>
+      <c r="V63" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="64">
@@ -6265,8 +6265,8 @@
       <c r="U64" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>34</v>
+      <c r="V64" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="65">
@@ -6333,8 +6333,8 @@
       <c r="U65" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>34</v>
+      <c r="V65" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="66">
@@ -6401,8 +6401,8 @@
       <c r="U66" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>34</v>
+      <c r="V66" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="67">
@@ -6469,8 +6469,8 @@
       <c r="U67" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>34</v>
+      <c r="V67" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68">
@@ -6537,8 +6537,8 @@
       <c r="U68" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>34</v>
+      <c r="V68" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="69">
@@ -6605,8 +6605,8 @@
       <c r="U69" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>34</v>
+      <c r="V69" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="70">
@@ -6673,8 +6673,8 @@
       <c r="U70" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>34</v>
+      <c r="V70" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="71">
@@ -6741,8 +6741,8 @@
       <c r="U71" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>34</v>
+      <c r="V71" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="72">
@@ -6809,8 +6809,8 @@
       <c r="U72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>34</v>
+      <c r="V72" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73">
@@ -6877,8 +6877,8 @@
       <c r="U73" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>34</v>
+      <c r="V73" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="74">
@@ -6945,8 +6945,8 @@
       <c r="U74" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>34</v>
+      <c r="V74" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="75">
@@ -7013,8 +7013,8 @@
       <c r="U75" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>34</v>
+      <c r="V75" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="76">
@@ -7081,8 +7081,8 @@
       <c r="U76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>34</v>
+      <c r="V76" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77">
@@ -7149,8 +7149,8 @@
       <c r="U77" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>34</v>
+      <c r="V77" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="78">
@@ -7217,8 +7217,8 @@
       <c r="U78" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>34</v>
+      <c r="V78" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="79">
@@ -7285,8 +7285,8 @@
       <c r="U79" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>34</v>
+      <c r="V79" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="80">
@@ -7353,8 +7353,8 @@
       <c r="U80" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>34</v>
+      <c r="V80" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="81">
@@ -7421,8 +7421,8 @@
       <c r="U81" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>34</v>
+      <c r="V81" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="82">
@@ -7489,8 +7489,8 @@
       <c r="U82" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>34</v>
+      <c r="V82" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="83">
@@ -7557,8 +7557,8 @@
       <c r="U83" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>34</v>
+      <c r="V83" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="84">
@@ -7625,8 +7625,8 @@
       <c r="U84" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>34</v>
+      <c r="V84" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="85">
@@ -7693,8 +7693,8 @@
       <c r="U85" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>34</v>
+      <c r="V85" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="86">
@@ -7761,8 +7761,8 @@
       <c r="U86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>34</v>
+      <c r="V86" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="87">
@@ -7829,8 +7829,8 @@
       <c r="U87" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>34</v>
+      <c r="V87" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="88">
@@ -7897,8 +7897,8 @@
       <c r="U88" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>34</v>
+      <c r="V88" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="89">
@@ -7965,8 +7965,8 @@
       <c r="U89" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>34</v>
+      <c r="V89" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="90">
@@ -8169,8 +8169,8 @@
       <c r="U92" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>34</v>
+      <c r="V92" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="93">
@@ -8237,8 +8237,8 @@
       <c r="U93" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>34</v>
+      <c r="V93" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="94">
@@ -8305,8 +8305,8 @@
       <c r="U94" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>34</v>
+      <c r="V94" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="95">
@@ -8373,8 +8373,8 @@
       <c r="U95" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>34</v>
+      <c r="V95" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="96">
@@ -8441,8 +8441,8 @@
       <c r="U96" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>34</v>
+      <c r="V96" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="97">
@@ -8509,8 +8509,8 @@
       <c r="U97" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>34</v>
+      <c r="V97" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="98">
@@ -8577,8 +8577,8 @@
       <c r="U98" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>34</v>
+      <c r="V98" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="99">
@@ -8645,8 +8645,8 @@
       <c r="U99" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>34</v>
+      <c r="V99" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="100">
@@ -8713,8 +8713,8 @@
       <c r="U100" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>34</v>
+      <c r="V100" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="101">
@@ -8781,8 +8781,8 @@
       <c r="U101" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>34</v>
+      <c r="V101" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="102">
@@ -8849,8 +8849,8 @@
       <c r="U102" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>34</v>
+      <c r="V102" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="103">
@@ -8917,8 +8917,8 @@
       <c r="U103" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>34</v>
+      <c r="V103" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="104">
@@ -8985,8 +8985,8 @@
       <c r="U104" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>34</v>
+      <c r="V104" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="105">
@@ -9053,8 +9053,8 @@
       <c r="U105" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>34</v>
+      <c r="V105" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="106">
@@ -9121,8 +9121,8 @@
       <c r="U106" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>34</v>
+      <c r="V106" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="107">
@@ -9325,8 +9325,8 @@
       <c r="U109" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>34</v>
+      <c r="V109" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="110">
@@ -9393,8 +9393,8 @@
       <c r="U110" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>34</v>
+      <c r="V110" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="111">
@@ -9461,8 +9461,8 @@
       <c r="U111" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>34</v>
+      <c r="V111" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="112">
@@ -9529,8 +9529,8 @@
       <c r="U112" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>34</v>
+      <c r="V112" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="113">
@@ -9597,8 +9597,8 @@
       <c r="U113" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V113" s="1" t="s">
-        <v>34</v>
+      <c r="V113" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="114">
@@ -9665,8 +9665,8 @@
       <c r="U114" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V114" s="1" t="s">
-        <v>34</v>
+      <c r="V114" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="115">
@@ -9733,8 +9733,8 @@
       <c r="U115" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>34</v>
+      <c r="V115" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="116">
@@ -9801,8 +9801,8 @@
       <c r="U116" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V116" s="1" t="s">
-        <v>34</v>
+      <c r="V116" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="117">
@@ -9869,8 +9869,8 @@
       <c r="U117" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V117" s="1" t="s">
-        <v>34</v>
+      <c r="V117" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="118">
@@ -9937,8 +9937,8 @@
       <c r="U118" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V118" s="1" t="s">
-        <v>34</v>
+      <c r="V118" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="119">
@@ -10005,8 +10005,8 @@
       <c r="U119" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V119" s="1" t="s">
-        <v>34</v>
+      <c r="V119" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="120">
@@ -10073,8 +10073,8 @@
       <c r="U120" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V120" s="1" t="s">
-        <v>34</v>
+      <c r="V120" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="121">
@@ -10141,8 +10141,8 @@
       <c r="U121" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>34</v>
+      <c r="V121" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="122">
@@ -10345,8 +10345,8 @@
       <c r="U124" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V124" s="1" t="s">
-        <v>34</v>
+      <c r="V124" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="125">
@@ -10413,8 +10413,8 @@
       <c r="U125" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V125" s="1" t="s">
-        <v>34</v>
+      <c r="V125" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="126">
@@ -10481,8 +10481,8 @@
       <c r="U126" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V126" s="1" t="s">
-        <v>34</v>
+      <c r="V126" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="127">
@@ -10549,8 +10549,8 @@
       <c r="U127" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V127" s="1" t="s">
-        <v>34</v>
+      <c r="V127" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="128">
@@ -10617,8 +10617,8 @@
       <c r="U128" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V128" s="1" t="s">
-        <v>34</v>
+      <c r="V128" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="129">
@@ -10685,8 +10685,8 @@
       <c r="U129" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V129" s="1" t="s">
-        <v>34</v>
+      <c r="V129" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="130">
@@ -10753,8 +10753,8 @@
       <c r="U130" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V130" s="1" t="s">
-        <v>34</v>
+      <c r="V130" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="131">
@@ -10821,8 +10821,8 @@
       <c r="U131" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V131" s="1" t="s">
-        <v>34</v>
+      <c r="V131" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="132">
@@ -10889,8 +10889,8 @@
       <c r="U132" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V132" s="1" t="s">
-        <v>34</v>
+      <c r="V132" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="133">
@@ -10957,8 +10957,8 @@
       <c r="U133" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V133" s="1" t="s">
-        <v>34</v>
+      <c r="V133" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="134">
@@ -11025,8 +11025,8 @@
       <c r="U134" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V134" s="1" t="s">
-        <v>34</v>
+      <c r="V134" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="135">
@@ -11093,8 +11093,8 @@
       <c r="U135" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V135" s="1" t="s">
-        <v>34</v>
+      <c r="V135" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="136">
@@ -11161,8 +11161,8 @@
       <c r="U136" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V136" s="1" t="s">
-        <v>34</v>
+      <c r="V136" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="137">
@@ -11229,8 +11229,8 @@
       <c r="U137" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V137" s="1" t="s">
-        <v>34</v>
+      <c r="V137" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="138">
@@ -11297,8 +11297,8 @@
       <c r="U138" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V138" s="1" t="s">
-        <v>34</v>
+      <c r="V138" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="139">
@@ -11365,8 +11365,8 @@
       <c r="U139" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V139" s="1" t="s">
-        <v>34</v>
+      <c r="V139" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="140">
@@ -11433,8 +11433,8 @@
       <c r="U140" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V140" s="1" t="s">
-        <v>34</v>
+      <c r="V140" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="141">
@@ -11501,8 +11501,8 @@
       <c r="U141" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V141" s="1" t="s">
-        <v>34</v>
+      <c r="V141" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="142">
@@ -11569,8 +11569,8 @@
       <c r="U142" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V142" s="1" t="s">
-        <v>34</v>
+      <c r="V142" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="143">
@@ -11637,8 +11637,8 @@
       <c r="U143" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V143" s="1" t="s">
-        <v>34</v>
+      <c r="V143" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="144">
@@ -11705,8 +11705,8 @@
       <c r="U144" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V144" s="1" t="s">
-        <v>34</v>
+      <c r="V144" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="145">
@@ -11773,8 +11773,8 @@
       <c r="U145" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V145" s="1" t="s">
-        <v>34</v>
+      <c r="V145" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="146">
@@ -11841,8 +11841,8 @@
       <c r="U146" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V146" s="1" t="s">
-        <v>34</v>
+      <c r="V146" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="147">
@@ -11909,8 +11909,8 @@
       <c r="U147" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V147" s="1" t="s">
-        <v>34</v>
+      <c r="V147" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="148">
@@ -11977,8 +11977,8 @@
       <c r="U148" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V148" s="1" t="s">
-        <v>34</v>
+      <c r="V148" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="149">
@@ -12045,8 +12045,8 @@
       <c r="U149" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V149" s="1" t="s">
-        <v>34</v>
+      <c r="V149" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="150">
@@ -12113,8 +12113,8 @@
       <c r="U150" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V150" s="1" t="s">
-        <v>34</v>
+      <c r="V150" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="151">
@@ -12181,8 +12181,8 @@
       <c r="U151" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V151" s="1" t="s">
-        <v>34</v>
+      <c r="V151" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="152">
@@ -12249,8 +12249,8 @@
       <c r="U152" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V152" s="1" t="s">
-        <v>34</v>
+      <c r="V152" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="153">
@@ -12317,8 +12317,8 @@
       <c r="U153" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V153" s="1" t="s">
-        <v>34</v>
+      <c r="V153" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="154">
@@ -12385,8 +12385,8 @@
       <c r="U154" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V154" s="1" t="s">
-        <v>34</v>
+      <c r="V154" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="155">
@@ -12453,8 +12453,8 @@
       <c r="U155" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V155" s="1" t="s">
-        <v>34</v>
+      <c r="V155" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="156">
@@ -12521,8 +12521,8 @@
       <c r="U156" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V156" s="1" t="s">
-        <v>34</v>
+      <c r="V156" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="157">
@@ -12589,8 +12589,8 @@
       <c r="U157" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V157" s="1" t="s">
-        <v>34</v>
+      <c r="V157" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="158">
@@ -12657,8 +12657,8 @@
       <c r="U158" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V158" s="1" t="s">
-        <v>34</v>
+      <c r="V158" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="159">
@@ -12725,8 +12725,8 @@
       <c r="U159" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V159" s="1" t="s">
-        <v>34</v>
+      <c r="V159" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="160">
@@ -12793,8 +12793,8 @@
       <c r="U160" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V160" s="1" t="s">
-        <v>34</v>
+      <c r="V160" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="161">
@@ -12861,8 +12861,8 @@
       <c r="U161" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V161" s="1" t="s">
-        <v>34</v>
+      <c r="V161" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="162">
@@ -12929,8 +12929,8 @@
       <c r="U162" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V162" s="1" t="s">
-        <v>34</v>
+      <c r="V162" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="163">
@@ -12997,8 +12997,8 @@
       <c r="U163" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V163" s="1" t="s">
-        <v>34</v>
+      <c r="V163" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="164">
@@ -13065,8 +13065,8 @@
       <c r="U164" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V164" s="1" t="s">
-        <v>34</v>
+      <c r="V164" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="165">
@@ -13133,8 +13133,8 @@
       <c r="U165" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V165" s="1" t="s">
-        <v>34</v>
+      <c r="V165" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="166">
@@ -13201,8 +13201,8 @@
       <c r="U166" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V166" s="1" t="s">
-        <v>34</v>
+      <c r="V166" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="167">
@@ -13269,8 +13269,8 @@
       <c r="U167" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V167" s="1" t="s">
-        <v>34</v>
+      <c r="V167" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="168">
@@ -13337,8 +13337,8 @@
       <c r="U168" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V168" s="1" t="s">
-        <v>34</v>
+      <c r="V168" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="169">
@@ -13405,8 +13405,8 @@
       <c r="U169" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V169" s="1" t="s">
-        <v>34</v>
+      <c r="V169" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="170">
@@ -13521,7 +13521,7 @@
         <v>432</v>
       </c>
       <c r="O171" s="2" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="P171" s="2" t="s">
         <v>33</v>
@@ -13609,8 +13609,8 @@
       <c r="U172" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V172" s="1" t="s">
-        <v>34</v>
+      <c r="V172" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="173">
@@ -13677,8 +13677,8 @@
       <c r="U173" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V173" s="1" t="s">
-        <v>34</v>
+      <c r="V173" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="174">
@@ -13745,8 +13745,8 @@
       <c r="U174" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V174" s="1" t="s">
-        <v>34</v>
+      <c r="V174" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="175">
@@ -13813,8 +13813,8 @@
       <c r="U175" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V175" s="1" t="s">
-        <v>34</v>
+      <c r="V175" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="176">
@@ -13881,8 +13881,8 @@
       <c r="U176" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V176" s="1" t="s">
-        <v>34</v>
+      <c r="V176" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="177">
@@ -13949,8 +13949,8 @@
       <c r="U177" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V177" s="1" t="s">
-        <v>34</v>
+      <c r="V177" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="178">
@@ -14017,8 +14017,8 @@
       <c r="U178" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V178" s="1" t="s">
-        <v>34</v>
+      <c r="V178" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="179">
@@ -14085,8 +14085,8 @@
       <c r="U179" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V179" s="1" t="s">
-        <v>34</v>
+      <c r="V179" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="180">
@@ -14153,8 +14153,8 @@
       <c r="U180" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V180" s="1" t="s">
-        <v>34</v>
+      <c r="V180" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="181">
@@ -14221,8 +14221,8 @@
       <c r="U181" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V181" s="1" t="s">
-        <v>34</v>
+      <c r="V181" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="182">
@@ -14289,8 +14289,8 @@
       <c r="U182" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V182" s="1" t="s">
-        <v>34</v>
+      <c r="V182" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="183">
@@ -14357,8 +14357,8 @@
       <c r="U183" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V183" s="1" t="s">
-        <v>34</v>
+      <c r="V183" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="184">
@@ -14425,8 +14425,8 @@
       <c r="U184" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V184" s="1" t="s">
-        <v>34</v>
+      <c r="V184" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="185">
@@ -14493,8 +14493,8 @@
       <c r="U185" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V185" s="1" t="s">
-        <v>34</v>
+      <c r="V185" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="186">
@@ -14561,8 +14561,8 @@
       <c r="U186" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V186" s="1" t="s">
-        <v>34</v>
+      <c r="V186" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="187">
@@ -14629,8 +14629,8 @@
       <c r="U187" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V187" s="1" t="s">
-        <v>34</v>
+      <c r="V187" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="188">
@@ -14697,8 +14697,8 @@
       <c r="U188" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V188" s="1" t="s">
-        <v>34</v>
+      <c r="V188" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="189">
@@ -14765,8 +14765,8 @@
       <c r="U189" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V189" s="1" t="s">
-        <v>34</v>
+      <c r="V189" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="190">
@@ -14833,8 +14833,8 @@
       <c r="U190" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V190" s="1" t="s">
-        <v>34</v>
+      <c r="V190" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="191">
@@ -14901,8 +14901,8 @@
       <c r="U191" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V191" s="1" t="s">
-        <v>34</v>
+      <c r="V191" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="192">
@@ -14969,8 +14969,8 @@
       <c r="U192" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V192" s="1" t="s">
-        <v>34</v>
+      <c r="V192" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="193">
@@ -15082,7 +15082,7 @@
         <v>31</v>
       </c>
       <c r="N194" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="O194" s="2" t="s">
         <v>33</v>
@@ -15173,8 +15173,8 @@
       <c r="U195" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V195" s="1" t="s">
-        <v>34</v>
+      <c r="V195" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="196">
@@ -15241,8 +15241,8 @@
       <c r="U196" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V196" s="1" t="s">
-        <v>34</v>
+      <c r="V196" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="197">
@@ -15309,8 +15309,8 @@
       <c r="U197" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V197" s="1" t="s">
-        <v>34</v>
+      <c r="V197" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="198">
@@ -15377,8 +15377,8 @@
       <c r="U198" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V198" s="1" t="s">
-        <v>34</v>
+      <c r="V198" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="199">
@@ -15445,8 +15445,8 @@
       <c r="U199" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V199" s="1" t="s">
-        <v>34</v>
+      <c r="V199" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="200">
@@ -15513,8 +15513,8 @@
       <c r="U200" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V200" s="1" t="s">
-        <v>34</v>
+      <c r="V200" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="201">
@@ -15581,8 +15581,8 @@
       <c r="U201" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V201" s="1" t="s">
-        <v>34</v>
+      <c r="V201" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="202">
@@ -15649,8 +15649,8 @@
       <c r="U202" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V202" s="1" t="s">
-        <v>34</v>
+      <c r="V202" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="203">
@@ -15717,8 +15717,8 @@
       <c r="U203" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V203" s="1" t="s">
-        <v>34</v>
+      <c r="V203" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="204">
@@ -15785,8 +15785,8 @@
       <c r="U204" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V204" s="1" t="s">
-        <v>34</v>
+      <c r="V204" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="205">
@@ -15853,8 +15853,8 @@
       <c r="U205" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V205" s="1" t="s">
-        <v>34</v>
+      <c r="V205" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="206">
@@ -15969,7 +15969,7 @@
         <v>54</v>
       </c>
       <c r="O207" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="P207" s="2" t="s">
         <v>33</v>
@@ -16057,8 +16057,8 @@
       <c r="U208" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V208" s="1" t="s">
-        <v>34</v>
+      <c r="V208" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="209">
@@ -16125,8 +16125,8 @@
       <c r="U209" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V209" s="1" t="s">
-        <v>34</v>
+      <c r="V209" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="210">
@@ -16193,8 +16193,8 @@
       <c r="U210" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V210" s="1" t="s">
-        <v>34</v>
+      <c r="V210" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="211">
@@ -16261,8 +16261,8 @@
       <c r="U211" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V211" s="1" t="s">
-        <v>34</v>
+      <c r="V211" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="212">
@@ -16329,8 +16329,8 @@
       <c r="U212" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V212" s="1" t="s">
-        <v>34</v>
+      <c r="V212" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="213">
@@ -16397,8 +16397,8 @@
       <c r="U213" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V213" s="1" t="s">
-        <v>34</v>
+      <c r="V213" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="214">
@@ -16465,8 +16465,8 @@
       <c r="U214" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V214" s="1" t="s">
-        <v>34</v>
+      <c r="V214" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="215">
@@ -16533,8 +16533,8 @@
       <c r="U215" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V215" s="1" t="s">
-        <v>34</v>
+      <c r="V215" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="216">
@@ -16601,8 +16601,8 @@
       <c r="U216" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V216" s="1" t="s">
-        <v>34</v>
+      <c r="V216" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="217">
@@ -16669,8 +16669,8 @@
       <c r="U217" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V217" s="1" t="s">
-        <v>34</v>
+      <c r="V217" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="218">
@@ -16737,8 +16737,8 @@
       <c r="U218" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V218" s="1" t="s">
-        <v>34</v>
+      <c r="V218" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="219">
@@ -16805,8 +16805,8 @@
       <c r="U219" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V219" s="1" t="s">
-        <v>34</v>
+      <c r="V219" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="220">
@@ -16873,8 +16873,8 @@
       <c r="U220" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V220" s="1" t="s">
-        <v>34</v>
+      <c r="V220" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="221">
@@ -16941,8 +16941,8 @@
       <c r="U221" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V221" s="1" t="s">
-        <v>34</v>
+      <c r="V221" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="222">
@@ -17009,8 +17009,8 @@
       <c r="U222" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V222" s="1" t="s">
-        <v>34</v>
+      <c r="V222" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="223">
@@ -17077,8 +17077,8 @@
       <c r="U223" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V223" s="1" t="s">
-        <v>34</v>
+      <c r="V223" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="224">
@@ -17145,8 +17145,8 @@
       <c r="U224" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V224" s="1" t="s">
-        <v>34</v>
+      <c r="V224" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="225">
@@ -17213,8 +17213,8 @@
       <c r="U225" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V225" s="1" t="s">
-        <v>34</v>
+      <c r="V225" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="226">

--- a/Excel-XLSX/UN-DJB.xlsx
+++ b/Excel-XLSX/UN-DJB.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Ri1xaN</t>
+    <t>8EOBan</t>
   </si>
   <si>
     <t>1977</t>
@@ -1536,19 +1536,19 @@
     <t>228</t>
   </si>
   <si>
-    <t>1062</t>
-  </si>
-  <si>
-    <t>417</t>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>394</t>
   </si>
   <si>
     <t>229</t>
   </si>
   <si>
-    <t>5498</t>
-  </si>
-  <si>
-    <t>7503</t>
+    <t>5695</t>
+  </si>
+  <si>
+    <t>8101</t>
   </si>
   <si>
     <t>230</t>
@@ -1560,7 +1560,7 @@
     <t>232</t>
   </si>
   <si>
-    <t>13462</t>
+    <t>13560</t>
   </si>
   <si>
     <t>233</t>
@@ -1572,7 +1572,7 @@
     <t>235</t>
   </si>
   <si>
-    <t>3407</t>
+    <t>3553</t>
   </si>
 </sst>
 </file>
@@ -17445,7 +17445,7 @@
         <v>44</v>
       </c>
       <c r="O228" s="2" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="P228" s="2" t="s">
         <v>33</v>
@@ -17785,7 +17785,7 @@
         <v>514</v>
       </c>
       <c r="O233" s="2" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="P233" s="2" t="s">
         <v>33</v>
@@ -17850,10 +17850,10 @@
         <v>31</v>
       </c>
       <c r="N234" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="O234" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="P234" s="2" t="s">
         <v>33</v>
@@ -17921,7 +17921,7 @@
         <v>63</v>
       </c>
       <c r="O235" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="P235" s="2" t="s">
         <v>33</v>
